--- a/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
+++ b/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19BC2C-8249-0942-9678-AF02F3A558A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97187A11-0DCD-9E4B-97F2-769BD9CEE53F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49680" yWindow="3560" windowWidth="27840" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47460" yWindow="1320" windowWidth="19400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>Mapping</t>
   </si>
@@ -419,9 +419,6 @@
     <t>loanSplitter</t>
   </si>
   <si>
-    <t>{"formatWithTemplate":"^8-^9"}</t>
-  </si>
-  <si>
     <t>check 2848 for delimiter</t>
   </si>
   <si>
@@ -569,17 +566,21 @@
 }</t>
   </si>
   <si>
-    <t>ca_objects.media.media_filename</t>
+    <t>objectRepresentationSplitter</t>
   </si>
   <si>
-    <t>media</t>
+    <t>{"skipIfEmpty": "1",
+"formatWithTemplate":"^8-^9"}</t>
   </si>
   <si>
-    <t>ca_objects.media.media_credit_line</t>
-  </si>
-  <si>
-    <t>{"skipGroupIfEmpty": "1",
-"delimiter": ";"}</t>
+    <t>{"delimiter":";",
+"objectRepresentationType": "front",
+ "attributes": {
+"idno": “%"
+  "credit_line": “^25",
+  "name": “^34"
+ }
+}</t>
   </si>
 </sst>
 </file>
@@ -675,18 +676,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -728,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,16 +774,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -815,14 +806,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,21 +1024,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1031"/>
+  <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="34" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
@@ -1111,7 +1097,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9">
@@ -1147,14 +1133,14 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -1183,7 +1169,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9">
@@ -1219,7 +1205,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9">
@@ -1234,13 +1220,13 @@
         <v>77</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1292,14 +1278,14 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="9">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
@@ -1329,14 +1315,14 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8" t="s">
@@ -1365,18 +1351,18 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="9">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="39" t="s">
-        <v>128</v>
+      <c r="E9" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
@@ -1402,21 +1388,21 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="9">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="5"/>
@@ -1438,24 +1424,24 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="9">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>163</v>
+      <c r="G11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1478,14 +1464,14 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="9">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
@@ -1513,14 +1499,14 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9">
         <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
@@ -1551,7 +1537,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="9">
@@ -1568,7 +1554,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
@@ -1623,14 +1609,14 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="9">
         <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
@@ -1659,14 +1645,14 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
@@ -1695,14 +1681,14 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="9">
         <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="s">
@@ -1731,14 +1717,14 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="28">
         <v>19</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>143</v>
+      <c r="C19" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="8" t="s">
@@ -1767,14 +1753,14 @@
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="9">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="8" t="s">
@@ -1803,14 +1789,14 @@
       <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9">
         <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="8" t="s">
@@ -1839,14 +1825,14 @@
       <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="9">
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="8" t="s">
@@ -1875,14 +1861,14 @@
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="9">
         <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="8" t="s">
@@ -1911,14 +1897,14 @@
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="9">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="8" t="s">
@@ -1947,19 +1933,19 @@
       <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="24">
-        <v>25</v>
+      <c r="B25" s="9">
+        <v>26</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>167</v>
+      <c r="C25" s="11" t="s">
+        <v>147</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>166</v>
+      <c r="D25" s="14"/>
+      <c r="E25" s="8" t="s">
+        <v>75</v>
       </c>
-      <c r="E25" s="8"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="16"/>
@@ -1983,11 +1969,11 @@
       <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>148</v>
@@ -2019,11 +2005,11 @@
       <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>149</v>
@@ -2055,16 +2041,16 @@
       <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="9">
-        <v>28</v>
+      <c r="B28" s="28">
+        <v>29</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
@@ -2091,13 +2077,13 @@
       <c r="Z28" s="16"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="30">
-        <v>29</v>
+      <c r="B29" s="28">
+        <v>30</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="16"/>
@@ -2127,13 +2113,13 @@
       <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="30">
-        <v>30</v>
+      <c r="B30" s="28">
+        <v>31</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="16"/>
@@ -2163,13 +2149,13 @@
       <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="30">
-        <v>31</v>
+      <c r="B31" s="28">
+        <v>32</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="16"/>
@@ -2199,13 +2185,13 @@
       <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="30">
-        <v>32</v>
+      <c r="B32" s="9">
+        <v>33</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D32" s="16"/>
@@ -2235,21 +2221,25 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2271,23 +2261,25 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="24">
-        <v>34</v>
+      <c r="B34" s="9">
+        <v>35</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>165</v>
+      <c r="C34" s="11" t="s">
+        <v>160</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>166</v>
+      <c r="D34" s="16"/>
+      <c r="E34" s="8" t="s">
+        <v>126</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>168</v>
+      <c r="F34" s="14" t="s">
+        <v>82</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2309,29 +2301,31 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="9">
-        <v>35</v>
+      <c r="B35" s="28">
+        <v>36</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>161</v>
+      <c r="C35" s="32" t="s">
+        <v>34</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>82</v>
+      <c r="F35" s="34" t="s">
+        <v>129</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>164</v>
+      <c r="G35" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
@@ -2349,66 +2343,62 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30">
-        <v>36</v>
+      <c r="B36" s="28">
+        <v>37</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>34</v>
+      <c r="C36" s="30" t="s">
+        <v>28</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>130</v>
+      <c r="F36" s="35" t="s">
+        <v>127</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>131</v>
+      <c r="G36" s="17" t="s">
+        <v>157</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="30">
-        <v>37</v>
+      <c r="B37" s="28">
+        <v>38</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>28</v>
+      <c r="C37" s="30" t="s">
+        <v>24</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="37" t="s">
-        <v>127</v>
+      <c r="F37" s="36" t="s">
+        <v>83</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>158</v>
+      <c r="G37" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="3"/>
@@ -2429,25 +2419,8 @@
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="30">
-        <v>38</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="7"/>
       <c r="J38" s="18"/>
       <c r="K38" s="3"/>
       <c r="L38" s="19"/>
@@ -2469,33 +2442,48 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
@@ -2516,22 +2504,14 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
@@ -2553,10 +2533,18 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="7"/>
@@ -2580,20 +2568,22 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B43" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>88</v>
+      <c r="C43" s="9" t="s">
+        <v>90</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>86</v>
+      <c r="D43" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="5"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2620,19 +2610,19 @@
         <v>13</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
@@ -2658,16 +2648,16 @@
         <v>13</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>94</v>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
@@ -2696,54 +2686,54 @@
         <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>5</v>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>98</v>
+      <c r="D46" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>101</v>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="7"/>
@@ -2772,18 +2762,18 @@
         <v>13</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>104</v>
+      <c r="C48" s="9">
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -2810,51 +2800,49 @@
         <v>13</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
-      <c r="C49" s="9">
-        <v>1</v>
+      <c r="C49" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2884,49 +2872,49 @@
         <v>13</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -2956,15 +2944,17 @@
         <v>13</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>10</v>
+      <c r="C53" s="7" t="s">
+        <v>119</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>117</v>
+      <c r="D53" s="1" t="s">
+        <v>120</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2992,17 +2982,15 @@
         <v>13</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>120</v>
+      <c r="D54" s="7" t="s">
+        <v>124</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3026,20 +3014,12 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -3068,26 +3048,26 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
@@ -30361,49 +30341,21 @@
       <c r="Y1030" s="4"/>
       <c r="Z1030" s="4"/>
     </row>
-    <row r="1031" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1031" s="7"/>
-      <c r="B1031" s="7"/>
-      <c r="C1031" s="7"/>
-      <c r="D1031" s="7"/>
-      <c r="E1031" s="7"/>
-      <c r="F1031" s="4"/>
-      <c r="G1031" s="4"/>
-      <c r="H1031" s="7"/>
-      <c r="I1031" s="7"/>
-      <c r="J1031" s="4"/>
-      <c r="K1031" s="7"/>
-      <c r="L1031" s="4"/>
-      <c r="M1031" s="4"/>
-      <c r="N1031" s="4"/>
-      <c r="O1031" s="4"/>
-      <c r="P1031" s="4"/>
-      <c r="Q1031" s="4"/>
-      <c r="R1031" s="4"/>
-      <c r="S1031" s="4"/>
-      <c r="T1031" s="4"/>
-      <c r="U1031" s="4"/>
-      <c r="V1031" s="4"/>
-      <c r="W1031" s="4"/>
-      <c r="X1031" s="4"/>
-      <c r="Y1031" s="4"/>
-      <c r="Z1031" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C50" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ignore_stop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C50" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C49" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C52:C53" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C51:C52" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>YES_NO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C47" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C46" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>table</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1031" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1030" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>RuletypesWRules</formula1>
     </dataValidation>
   </dataValidations>
@@ -30416,7 +30368,7 @@
           <x14:formula1>
             <xm:f>'Drop-down Lists'!$E$1:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C46</xm:sqref>
+          <xm:sqref>C45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
+++ b/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97187A11-0DCD-9E4B-97F2-769BD9CEE53F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0152AD4-390C-1C4C-97F3-779526F2BD5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47460" yWindow="1320" windowWidth="19400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38020" yWindow="3800" windowWidth="29180" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
   <si>
     <t>Mapping</t>
   </si>
@@ -271,12 +271,6 @@
 </t>
   </si>
   <si>
-    <t>date filter, can do on front end/in search params?</t>
-  </si>
-  <si>
-    <t>dimensions, as text?</t>
-  </si>
-  <si>
     <t>part of name authority</t>
   </si>
   <si>
@@ -417,9 +411,6 @@
   </si>
   <si>
     <t>loanSplitter</t>
-  </si>
-  <si>
-    <t>check 2848 for delimiter</t>
   </si>
   <si>
     <t>movementSplitter</t>
@@ -566,21 +557,27 @@
 }</t>
   </si>
   <si>
-    <t>objectRepresentationSplitter</t>
-  </si>
-  <si>
     <t>{"skipIfEmpty": "1",
 "formatWithTemplate":"^8-^9"}</t>
   </si>
   <si>
-    <t>{"delimiter":";",
-"objectRepresentationType": "front",
- "attributes": {
-"idno": “%"
-  "credit_line": “^25",
-  "name": “^34"
- }
+    <t>Roman 1st Century B.C./1st Century A.D.</t>
+  </si>
+  <si>
+    <t>1st century B.C.-1st century A.D.</t>
+  </si>
+  <si>
+    <t>{
+	"skipIfEmpty": "1",
+	"delimiter": ";",
+	"applyRegularExpressions": [{
+		"match": "(\\*PROPOSE DELETE; )(.*)",
+		"replaceWith": "\\2"
+	}]
 }</t>
+  </si>
+  <si>
+    <t>check 2848 for delimiter; applyRegularExpressions added to handle error in data</t>
   </si>
 </sst>
 </file>
@@ -723,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,10 +800,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1097,7 +1100,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9">
@@ -1133,14 +1136,14 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -1169,7 +1172,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9">
@@ -1205,7 +1208,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9">
@@ -1220,13 +1223,13 @@
         <v>77</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1258,7 +1261,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L6" s="4"/>
@@ -1278,14 +1281,14 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="9">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
@@ -1295,9 +1298,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1315,14 +1316,14 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8" t="s">
@@ -1330,8 +1331,12 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="4"/>
@@ -1351,26 +1356,24 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="9">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="37" t="s">
-        <v>165</v>
+      <c r="E9" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="K9" s="13"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1388,14 +1391,14 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="9">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
@@ -1424,24 +1427,24 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="9">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1464,14 +1467,14 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="9">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
@@ -1499,14 +1502,14 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9">
         <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
@@ -1517,9 +1520,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="K13" s="13"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1537,7 +1538,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="9">
@@ -1554,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
@@ -1589,8 +1590,8 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="13" t="s">
-        <v>81</v>
+      <c r="K15" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1609,14 +1610,14 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="9">
         <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
@@ -1645,14 +1646,14 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="28">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
@@ -1681,14 +1682,14 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="9">
         <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="s">
@@ -1717,14 +1718,14 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="28">
         <v>19</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="8" t="s">
@@ -1753,14 +1754,14 @@
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="9">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="8" t="s">
@@ -1789,14 +1790,14 @@
       <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9">
         <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="8" t="s">
@@ -1825,14 +1826,14 @@
       <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="9">
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="8" t="s">
@@ -1861,14 +1862,14 @@
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="9">
         <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="8" t="s">
@@ -1897,14 +1898,14 @@
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="9">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="8" t="s">
@@ -1933,14 +1934,14 @@
       <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="9">
         <v>26</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="8" t="s">
@@ -1969,14 +1970,14 @@
       <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="9">
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="8" t="s">
@@ -2005,14 +2006,14 @@
       <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="9">
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="8" t="s">
@@ -2041,14 +2042,14 @@
       <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="28">
         <v>29</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="8" t="s">
@@ -2077,14 +2078,14 @@
       <c r="Z28" s="16"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="28">
         <v>30</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="8" t="s">
@@ -2113,14 +2114,14 @@
       <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="28">
         <v>31</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="8" t="s">
@@ -2149,14 +2150,14 @@
       <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="28">
         <v>32</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="8" t="s">
@@ -2185,14 +2186,14 @@
       <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="9">
         <v>33</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="8" t="s">
@@ -2221,25 +2222,17 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>0</v>
+      <c r="A33" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="9">
         <v>34</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>166</v>
-      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2261,24 +2254,24 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="9">
         <v>35</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2301,7 +2294,7 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="28">
@@ -2312,19 +2305,19 @@
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="G35" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -2343,7 +2336,7 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="28">
@@ -2354,13 +2347,13 @@
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J36" s="18"/>
       <c r="K36" s="3"/>
@@ -2381,7 +2374,7 @@
       <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="28">
@@ -2392,13 +2385,13 @@
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="3"/>
@@ -2470,13 +2463,13 @@
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>70</v>
@@ -2534,13 +2527,13 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>70</v>
@@ -2572,16 +2565,16 @@
         <v>13</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -2610,16 +2603,16 @@
         <v>13</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
@@ -2648,16 +2641,16 @@
         <v>13</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
@@ -2686,16 +2679,16 @@
         <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="7"/>
@@ -2724,16 +2717,16 @@
         <v>13</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="E47" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="7"/>
@@ -2762,16 +2755,16 @@
         <v>13</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="9">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2800,13 +2793,13 @@
         <v>13</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -2836,13 +2829,13 @@
         <v>13</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2872,13 +2865,13 @@
         <v>13</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -2908,13 +2901,13 @@
         <v>13</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -2944,16 +2937,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2982,13 +2975,13 @@
         <v>13</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>

--- a/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
+++ b/mappings/3_Kress_ArtObjects_ImportMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Documents/GitHub/NGA-Kress/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0152AD4-390C-1C4C-97F3-779526F2BD5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126FED3-0E69-C244-95AA-A8BAB4B421D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38020" yWindow="3800" windowWidth="29180" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38300" yWindow="5400" windowWidth="29180" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
   <si>
     <t>Mapping</t>
   </si>
@@ -516,9 +516,6 @@
 		","
 	]
 }</t>
-  </si>
-  <si>
-    <t>Not importing when there's multiple</t>
   </si>
   <si>
     <t>{
@@ -1029,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1223,14 +1220,12 @@
         <v>77</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1332,10 +1327,10 @@
       <c r="F8" s="10"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1367,7 +1362,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="38"/>
@@ -1444,7 +1439,7 @@
         <v>123</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2261,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="8" t="s">
@@ -2271,7 +2266,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2305,7 +2300,7 @@
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>126</v>
@@ -2317,7 +2312,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -2391,7 +2386,7 @@
         <v>81</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="3"/>
